--- a/data/TestTwo.xlsx
+++ b/data/TestTwo.xlsx
@@ -8,15 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="testTwo_five" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="testTwo_two" sheetId="6" r:id="rId2"/>
+    <sheet name="testTwo_three" sheetId="5" r:id="rId3"/>
+    <sheet name="testTwo_four" sheetId="4" r:id="rId4"/>
+    <sheet name="testTwo_five" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Password</t>
   </si>
@@ -82,6 +85,60 @@
   </si>
   <si>
     <t>hassan@mail.com</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>mohammed@mail.com</t>
+  </si>
+  <si>
+    <t>Khoukha</t>
+  </si>
+  <si>
+    <t>khoukhaa@mail.net</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>olaz@mail.com</t>
+  </si>
+  <si>
+    <t>Akram</t>
+  </si>
+  <si>
+    <t>akram@mail.com</t>
+  </si>
+  <si>
+    <t>Emad</t>
+  </si>
+  <si>
+    <t>emad@mail.net</t>
+  </si>
+  <si>
+    <t>Hussein</t>
+  </si>
+  <si>
+    <t>hussein@mail.com</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>ibrahim@mail.com</t>
+  </si>
+  <si>
+    <t>Yasser</t>
+  </si>
+  <si>
+    <t>yasser@mail.net</t>
+  </si>
+  <si>
+    <t>Amr</t>
+  </si>
+  <si>
+    <t>amr@mail.com</t>
   </si>
 </sst>
 </file>
@@ -494,6 +551,216 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.5234375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="22.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.5234375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="22.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.5234375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="22.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -557,7 +824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
